--- a/vedois/professores (importar)/Prof 15_horarios.xlsx
+++ b/vedois/professores (importar)/Prof 15_horarios.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0099FF99"/>
-        <bgColor rgb="0099FF99"/>
+        <fgColor rgb="00FF9999"/>
+        <bgColor rgb="00FF9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF9999"/>
-        <bgColor rgb="00FF9999"/>
+        <fgColor rgb="0099FF99"/>
+        <bgColor rgb="0099FF99"/>
       </patternFill>
     </fill>
   </fills>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Desenvolvimento de Sistemas na Web (CCO - 7º período)</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Desenvolvimento de Sistemas na Web (CCO - 7º período)</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Desenvolvimento de Sistemas na Web (CCO - 7º período)</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Desenvolvimento de Sistemas na Web (CCO - 7º período)</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
           <t>11:00 - 11:55</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Desenvolvimento de Sistemas na Web (CCO - 7º período)</t>
         </is>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Programação Web (SIN - 3º período)</t>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Programação Web (SIN - 3º período)</t>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Programação Web (SIN - 3º período)</t>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Programação Web (SIN - 3º período)</t>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
           <t>17:35 - 18:30</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -648,7 +648,7 @@
           <t>19:00 - 19:50</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Fundamentos de Programação (SIN - 1º período)</t>
         </is>
@@ -665,7 +665,7 @@
           <t>19:50 - 20:40</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Fundamentos de Programação (SIN - 1º período)</t>
         </is>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Fundamentos de Programação (SIN - 1º período)</t>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Fundamentos de Programação (SIN - 1º período)</t>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
           <t>22:40 - 23:30</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Desenvolvimento de Sistemas na Web (CCO - 7º período)</t>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Desenvolvimento de Sistemas na Web (CCO - 7º período)</t>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Desenvolvimento de Sistemas na Web (CCO - 7º período)</t>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Desenvolvimento de Sistemas na Web (CCO - 7º período)</t>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
           <t>11:00 - 11:55</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -818,7 +818,7 @@
           <t>13:30 - 14:25</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -835,7 +835,7 @@
           <t>14:25 - 15:20</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -852,7 +852,7 @@
           <t>15:45 - 16:40</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -869,7 +869,7 @@
           <t>16:40 - 17:35</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -886,7 +886,7 @@
           <t>17:35 - 18:30</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Fundamentos de Programação (SIN - 1º período)</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Fundamentos de Programação (SIN - 1º período)</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Programação Web (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Programação Web (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
           <t>22:40 - 23:30</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -988,7 +988,7 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1005,7 +1005,7 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1022,7 +1022,7 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1039,7 +1039,7 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1056,7 +1056,7 @@
           <t>11:00 - 11:55</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1073,7 +1073,7 @@
           <t>13:30 - 14:25</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1090,7 +1090,7 @@
           <t>14:25 - 15:20</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1107,7 +1107,7 @@
           <t>15:45 - 16:40</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1124,7 +1124,7 @@
           <t>16:40 - 17:35</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1141,7 +1141,7 @@
           <t>17:35 - 18:30</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Programação Web (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>livre</t>
+          <t>Programação Web (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1209,7 +1209,7 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1226,7 +1226,7 @@
           <t>22:40 - 23:30</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1243,7 +1243,7 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1260,7 +1260,7 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1277,7 +1277,7 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1294,7 +1294,7 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1311,7 +1311,7 @@
           <t>11:00 - 11:55</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1328,7 +1328,7 @@
           <t>13:30 - 14:25</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1345,7 +1345,7 @@
           <t>14:25 - 15:20</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1362,7 +1362,7 @@
           <t>15:45 - 16:40</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1379,7 +1379,7 @@
           <t>16:40 - 17:35</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1396,7 +1396,7 @@
           <t>17:35 - 18:30</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1413,7 +1413,7 @@
           <t>19:00 - 19:50</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1430,7 +1430,7 @@
           <t>19:50 - 20:40</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1447,7 +1447,7 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1464,7 +1464,7 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1481,7 +1481,7 @@
           <t>22:40 - 23:30</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1498,7 +1498,7 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1515,7 +1515,7 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1532,7 +1532,7 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1549,7 +1549,7 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1566,7 +1566,7 @@
           <t>11:00 - 11:55</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1583,7 +1583,7 @@
           <t>13:30 - 14:25</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1600,7 +1600,7 @@
           <t>14:25 - 15:20</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1617,7 +1617,7 @@
           <t>15:45 - 16:40</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1634,7 +1634,7 @@
           <t>16:40 - 17:35</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1651,7 +1651,7 @@
           <t>17:35 - 18:30</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1668,7 +1668,7 @@
           <t>19:00 - 19:50</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1685,7 +1685,7 @@
           <t>19:50 - 20:40</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C74" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1702,7 +1702,7 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1719,7 +1719,7 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
@@ -1736,7 +1736,7 @@
           <t>22:40 - 23:30</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" s="3" t="inlineStr">
         <is>
           <t>livre</t>
         </is>
